--- a/exampleProblems/ch9_025/ch9_025.xlsx
+++ b/exampleProblems/ch9_025/ch9_025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleLiquidNMRanalysisVoila/development/exampleProblems/ch9_025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{C880BEE3-7AF1-1B4F-BBE4-1AAC7D396893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F681920C-BCC3-CF4E-9186-03EDC8980641}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{C880BEE3-7AF1-1B4F-BBE4-1AAC7D396893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BB6B2AA-C7DF-4F75-98AA-80C8E11BA449}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="500" windowWidth="17480" windowHeight="12300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -135,14 +135,20 @@
     <t>C (t)</t>
   </si>
   <si>
-    <t>7.0, 5.0</t>
+    <t>7, 7</t>
+  </si>
+  <si>
+    <t>7.0, 7.0, 5.0</t>
+  </si>
+  <si>
+    <t>5, 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,14 +577,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -595,16 +601,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -631,7 +637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -653,14 +659,14 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1">
-        <v>7</v>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -683,13 +689,13 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -711,14 +717,14 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1">
-        <v>5</v>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -729,7 +735,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -740,7 +746,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -751,7 +757,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -762,7 +768,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -773,7 +779,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -784,7 +790,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -809,9 +815,9 @@
       <selection activeCell="A5" sqref="A5:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>22</v>
@@ -844,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -876,7 +882,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -908,7 +914,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -940,7 +946,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -954,7 +960,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -967,7 +973,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -981,7 +987,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -995,7 +1001,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1009,7 +1015,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1023,7 +1029,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1037,10 +1043,10 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1057,9 +1063,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>22</v>
@@ -1103,7 +1109,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1136,7 +1142,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1169,7 +1175,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1202,7 +1208,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1235,7 +1241,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1268,7 +1274,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1301,7 +1307,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1334,7 +1340,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1349,7 +1355,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1364,7 +1370,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1379,7 +1385,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1394,7 +1400,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1409,7 +1415,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1424,7 +1430,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1439,7 +1445,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1454,7 +1460,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1469,7 +1475,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1493,7 +1499,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1504,7 +1510,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1515,7 +1521,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1526,7 +1532,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1537,7 +1543,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1548,7 +1554,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1559,7 +1565,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1570,7 +1576,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1581,7 +1587,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1592,7 +1598,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1603,7 +1609,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1614,7 +1620,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1625,7 +1631,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1636,7 +1642,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1647,7 +1653,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1658,7 +1664,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1669,7 +1675,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1690,13 +1696,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>22</v>
@@ -1740,7 +1746,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1771,7 +1777,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1802,7 +1808,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1833,7 +1839,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1864,7 +1870,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1895,7 +1901,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1926,7 +1932,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1939,7 +1945,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1952,7 +1958,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1965,7 +1971,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1978,7 +1984,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1991,7 +1997,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2004,7 +2010,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2017,7 +2023,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2030,7 +2036,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2043,7 +2049,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2056,7 +2062,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2069,7 +2075,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2082,7 +2088,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2095,7 +2101,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2108,7 +2114,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2121,7 +2127,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2134,7 +2140,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2147,7 +2153,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2160,7 +2166,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2173,7 +2179,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2186,7 +2192,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2199,7 +2205,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2212,7 +2218,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2225,7 +2231,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2238,7 +2244,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2251,7 +2257,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2264,7 +2270,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2277,7 +2283,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2290,7 +2296,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2303,7 +2309,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2316,7 +2322,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2329,7 +2335,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2342,7 +2348,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2355,7 +2361,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2368,7 +2374,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2381,7 +2387,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2394,7 +2400,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2407,7 +2413,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2434,9 +2440,9 @@
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -2463,7 +2469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2488,7 +2494,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2513,7 +2519,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2538,7 +2544,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2563,7 +2569,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2574,7 +2580,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2585,7 +2591,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2596,7 +2602,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2607,7 +2613,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2618,7 +2624,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2629,7 +2635,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2640,7 +2646,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2651,7 +2657,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2662,7 +2668,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2687,9 +2693,9 @@
       <selection activeCell="A5" sqref="A5:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -2716,7 +2722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2741,7 +2747,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2766,7 +2772,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2791,7 +2797,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2802,7 +2808,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2813,7 +2819,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2824,7 +2830,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2835,7 +2841,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2846,7 +2852,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2857,7 +2863,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2874,9 +2880,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3097,27 +3106,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3142,9 +3139,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_025/ch9_025.xlsx
+++ b/exampleProblems/ch9_025/ch9_025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{C880BEE3-7AF1-1B4F-BBE4-1AAC7D396893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BB6B2AA-C7DF-4F75-98AA-80C8E11BA449}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{C880BEE3-7AF1-1B4F-BBE4-1AAC7D396893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F7C56FE-9E25-4365-9AA1-9E70E160D130}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>5, 5</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>CCC(N)C(=O)O</t>
   </si>
 </sst>
 </file>
@@ -571,25 +577,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -601,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2880,12 +2892,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3106,15 +3115,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3139,18 +3160,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_025/ch9_025.xlsx
+++ b/exampleProblems/ch9_025/ch9_025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{C880BEE3-7AF1-1B4F-BBE4-1AAC7D396893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F7C56FE-9E25-4365-9AA1-9E70E160D130}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_56F0323EF3945A400EF24F1E0E5BCC19BE845AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9951567-6B0A-413B-B1AB-869FE67F8EE7}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="1980" windowWidth="23880" windowHeight="13620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -579,11 +580,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -823,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +909,7 @@
         <v>26.4</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E3" s="1">
         <v>18.68</v>
@@ -1072,7 +1076,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,10 +2895,61 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0485FA56-5988-4C42-9C5F-6D0A28B6C73C}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3115,27 +3170,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3160,9 +3203,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>